--- a/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="C2">
-        <v>0.8668730650154799</v>
+        <v>0.8431952662721893</v>
       </c>
       <c r="D2">
-        <v>0.5243445692883895</v>
+        <v>0.5337078651685393</v>
       </c>
       <c r="E2">
-        <v>0.6534422403733956</v>
+        <v>0.6536697247706422</v>
       </c>
       <c r="F2">
-        <v>0.5693371289141927</v>
+        <v>0.5759902991107518</v>
       </c>
       <c r="G2">
-        <v>0.53243618810795</v>
+        <v>0.5413500876680304</v>
       </c>
       <c r="H2">
-        <v>0.7219101123595505</v>
+        <v>0.7172284644194755</v>
       </c>
       <c r="I2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L2">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6590604026845638</v>
+        <v>0.6589041095890411</v>
       </c>
       <c r="C2">
-        <v>0.9194756554307116</v>
+        <v>0.900749063670412</v>
       </c>
       <c r="D2">
-        <v>0.7677873338545739</v>
+        <v>0.7610759493670886</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8668730650154799</v>
+        <v>0.8431952662721893</v>
       </c>
       <c r="C3">
-        <v>0.5243445692883895</v>
+        <v>0.5337078651685393</v>
       </c>
       <c r="D3">
-        <v>0.6534422403733956</v>
+        <v>0.6536697247706422</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="C4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="E4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7629667338500219</v>
+        <v>0.7510496879306152</v>
       </c>
       <c r="C5">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D5">
-        <v>0.7106147871139847</v>
+        <v>0.7073728370688654</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7629667338500219</v>
+        <v>0.7510496879306152</v>
       </c>
       <c r="C6">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D6">
-        <v>0.7106147871139847</v>
+        <v>0.7073728370688653</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C3">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="C2">
-        <v>0.8431952662721893</v>
+        <v>0.937007874015748</v>
       </c>
       <c r="D2">
-        <v>0.5337078651685393</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="E2">
-        <v>0.6536697247706422</v>
+        <v>0.6040609137055838</v>
       </c>
       <c r="F2">
-        <v>0.5759902991107518</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="G2">
-        <v>0.5413500876680304</v>
+        <v>0.4548662158188768</v>
       </c>
       <c r="H2">
-        <v>0.7172284644194755</v>
+        <v>0.7078651685393259</v>
       </c>
       <c r="I2">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="L2">
-        <v>249</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6589041095890411</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2">
-        <v>0.900749063670412</v>
+        <v>0.9700374531835206</v>
       </c>
       <c r="D2">
-        <v>0.7610759493670886</v>
+        <v>0.7685459940652819</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8431952662721893</v>
+        <v>0.937007874015748</v>
       </c>
       <c r="C3">
-        <v>0.5337078651685393</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="D3">
-        <v>0.6536697247706422</v>
+        <v>0.6040609137055838</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="C4">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="D4">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="E4">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7510496879306152</v>
+        <v>0.7866857551896922</v>
       </c>
       <c r="C5">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="D5">
-        <v>0.7073728370688654</v>
+        <v>0.6863034538854329</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7510496879306152</v>
+        <v>0.7866857551896922</v>
       </c>
       <c r="C6">
-        <v>0.7172284644194756</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="D6">
-        <v>0.7073728370688653</v>
+        <v>0.6863034538854329</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.4548662158188768</v>
       </c>
       <c r="H2">
-        <v>0.7078651685393259</v>
+        <v>0.7833396456676345</v>
       </c>
       <c r="I2">
         <v>238</v>

--- a/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.937007874015748</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.4456928838951311</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.6040609137055838</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F2">
-        <v>0.497907949790795</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2">
-        <v>0.4548662158188768</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.7833396456676345</v>
+        <v>0.7672011109708371</v>
       </c>
       <c r="I2">
-        <v>238</v>
+        <v>534</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>534</v>
       </c>
       <c r="K2">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9700374531835206</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7685459940652819</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.937007874015748</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.4456928838951311</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6040609137055838</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7866857551896922</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.6863034538854329</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7866857551896922</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.7078651685393258</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.6863034538854329</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
